--- a/extdata/toyFiles/FROC/bad/frocCrNonCharInReaderID.xlsx
+++ b/extdata/toyFiles/FROC/bad/frocCrNonCharInReaderID.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/PyJafroc/extdata/toyFiles/FROC/bad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E34023-1E44-154A-8331-771B9CA295F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B71865-DD10-7B45-8405-65189D22D795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17820" yWindow="1720" windowWidth="10980" windowHeight="10640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="3260" windowWidth="10980" windowHeight="10640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP" sheetId="3" r:id="rId1"/>
-    <sheet name="FP" sheetId="2" r:id="rId2"/>
+    <sheet name="LL" sheetId="3" r:id="rId1"/>
+    <sheet name="NL" sheetId="2" r:id="rId2"/>
     <sheet name="TRUTH" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="10">
   <si>
     <t>CaseID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>ModalityID</t>
   </si>
   <si>
-    <t>FP_Rating</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -64,22 +61,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>TP_Rating</t>
+    <t>LLRating</t>
   </si>
   <si>
-    <t>0,1,2</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Paradigm</t>
-  </si>
-  <si>
-    <t>FROC</t>
-  </si>
-  <si>
-    <t>FCTRL</t>
+    <t>NLRating</t>
   </si>
 </sst>
 </file>
@@ -574,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,19 +585,19 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.10301920228363071</v>
+        <v>7.4367751999866338E-2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -623,21 +608,17 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.2</v>
-      </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>0.46510175798017217</v>
+        <f t="shared" ref="M2:M13" ca="1" si="0">RAND()-0.5</f>
+        <v>-0.17517712580288625</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -648,21 +629,17 @@
       <c r="E3" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J3" s="2">
+      <c r="M3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.17314381209569107</v>
+        <v>-0.14078891586981335</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>71</v>
@@ -673,21 +650,17 @@
       <c r="E4" s="1">
         <v>3.01</v>
       </c>
-      <c r="J4" s="2">
+      <c r="M4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.92</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.22197985869471537</v>
+        <v>0.20303088795772151</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>72</v>
@@ -698,21 +671,17 @@
       <c r="E5" s="1">
         <v>5.98</v>
       </c>
-      <c r="J5" s="2">
+      <c r="M5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.0638929448384893E-2</v>
+        <v>0.2291799582074443</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>73</v>
@@ -723,21 +692,17 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>5.05</v>
-      </c>
       <c r="M6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.41067609653503478</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.16456160250192864</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>73</v>
@@ -748,21 +713,17 @@
       <c r="E7" s="1">
         <v>5.25</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.03</v>
-      </c>
       <c r="M7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.1505231034403548</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.25899582826636702</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>74</v>
@@ -773,21 +734,17 @@
       <c r="E8" s="1">
         <v>4.26</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.22</v>
-      </c>
       <c r="M8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.6576851547650437E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.38226151023935939</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>70</v>
@@ -798,21 +755,17 @@
       <c r="E9" s="1">
         <v>5.14</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.21</v>
-      </c>
       <c r="M9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.42993424186014562</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.7199732990281213E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>71</v>
@@ -823,21 +776,17 @@
       <c r="E10" s="1">
         <v>3.31</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.33</v>
-      </c>
       <c r="M10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.4859173344713454E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2967346117126528E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>72</v>
@@ -848,21 +797,17 @@
       <c r="E11" s="1">
         <v>4.92</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.87</v>
-      </c>
       <c r="M11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27057270227901464</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.28594728244935652</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>72</v>
@@ -874,16 +819,16 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.6757223672514772E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41429425973595113</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>72</v>
@@ -895,16 +840,16 @@
         <v>4.63</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.48504954546589096</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.36452773347253509</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>73</v>
@@ -918,10 +863,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -934,15 +879,15 @@
       </c>
       <c r="M15" s="2">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>-0.10261301006034697</v>
+        <v>-6.0432271351878279E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1">
         <v>70</v>
@@ -956,10 +901,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>71</v>
@@ -973,10 +918,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
         <v>72</v>
@@ -990,10 +935,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1">
         <v>73</v>
@@ -1007,10 +952,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>74</v>
@@ -1024,10 +969,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>70</v>
@@ -1041,10 +986,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1058,10 +1003,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1075,10 +1020,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>73</v>
@@ -1092,10 +1037,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>74</v>
@@ -1109,10 +1054,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>70</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>71</v>
@@ -1143,10 +1088,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>72</v>
@@ -1160,10 +1105,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>73</v>
@@ -1177,10 +1122,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>74</v>
@@ -1194,10 +1139,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>70</v>
@@ -1211,10 +1156,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>71</v>
@@ -1242,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1201,7 @@
     <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1267,15 +1212,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1283,17 +1228,13 @@
       <c r="D2" s="1">
         <v>1.02</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1301,17 +1242,13 @@
       <c r="D3" s="1">
         <v>2.17</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1319,17 +1256,13 @@
       <c r="D4" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1337,17 +1270,13 @@
       <c r="D5" s="1">
         <v>1.9</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1355,17 +1284,13 @@
       <c r="D6" s="1">
         <v>2.21</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1373,17 +1298,13 @@
       <c r="D7" s="1">
         <v>3.1</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1392,12 +1313,12 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
@@ -1405,17 +1326,13 @@
       <c r="D9" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1423,17 +1340,13 @@
       <c r="D10" s="1">
         <v>2.14</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -1441,17 +1354,13 @@
       <c r="D11" s="1">
         <v>1.98</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1460,12 +1369,12 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1474,12 +1383,12 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>2</v>
@@ -1488,12 +1397,12 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>74</v>
@@ -1502,12 +1411,12 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>73</v>
@@ -1518,10 +1427,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -1532,10 +1441,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1546,10 +1455,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1560,10 +1469,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1574,10 +1483,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>71</v>
@@ -1588,10 +1497,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>71</v>
@@ -1602,10 +1511,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>72</v>
@@ -1630,22 +1539,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,17 +1561,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1675,17 +1572,8 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1695,17 +1583,8 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1715,15 +1594,8 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>70</v>
       </c>
@@ -1733,15 +1605,8 @@
       <c r="C5" s="1">
         <v>0.3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>70</v>
       </c>
@@ -1751,15 +1616,8 @@
       <c r="C6" s="1">
         <v>0.7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>71</v>
       </c>
@@ -1769,15 +1627,8 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>72</v>
       </c>
@@ -1787,15 +1638,8 @@
       <c r="C8" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>72</v>
       </c>
@@ -1805,15 +1649,8 @@
       <c r="C9" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>72</v>
       </c>
@@ -1823,15 +1660,8 @@
       <c r="C10" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>73</v>
       </c>
@@ -1841,15 +1671,8 @@
       <c r="C11" s="1">
         <v>0.1</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>73</v>
       </c>
@@ -1859,15 +1682,8 @@
       <c r="C12" s="1">
         <v>0.9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>74</v>
       </c>
@@ -1877,13 +1693,6 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
